--- a/public/master_sheet.xlsx
+++ b/public/master_sheet.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8C5EA-9E9C-4F6F-9540-F7B9EDD5816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359FC25-3296-45EB-B556-6261B7356DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30F2B019-24A3-4CAE-B543-94200CC85ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$152</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="183">
   <si>
     <t>Processes Stage</t>
   </si>
@@ -603,6 +606,9 @@
   </si>
   <si>
     <t>Hulk Line/Machine Qualification</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -834,200 +840,200 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,13 +1351,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828BCDCA-CB38-49AB-A717-F180CAD14ABF}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.1796875" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="52">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.5">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="37.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="75">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="37.5">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1612,22 +1618,22 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="49" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -1638,12 +1644,12 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
@@ -1651,8 +1657,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="52">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1667,18 +1673,18 @@
       <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="87.5">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1693,36 +1699,36 @@
       <c r="E14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="6">
@@ -1730,92 +1736,92 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="52"/>
+      <c r="G16" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="14">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="37.5">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="16" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="21" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -1826,39 +1832,39 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="6">
@@ -1866,13 +1872,13 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="21" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H23" s="6">
@@ -1880,22 +1886,22 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="39" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -1906,36 +1912,36 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -1946,39 +1952,39 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="6">
@@ -1986,13 +1992,13 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="6">
@@ -2000,1602 +2006,1602 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="37" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="16">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="37" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="37" t="s">
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="33">
         <v>24</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="41"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="37" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="67">
         <v>110</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="16">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="37" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="16">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="37" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="37" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="26">
-      <c r="A43" s="55" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="F43" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="26">
-      <c r="A44" s="55" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="38.5">
-      <c r="A45" s="55" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="26">
-      <c r="A46" s="55" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="20">
         <v>300</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E46" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="16">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="26">
-      <c r="A47" s="55" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="38.5">
-      <c r="A48" s="55" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="58" t="s">
+      <c r="E48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="26">
-      <c r="A49" s="55" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="16">
         <f>6*30*3</f>
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26">
-      <c r="A50" s="55" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="58" t="s">
+      <c r="E50" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="38">
+      <c r="H50" s="16">
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58" t="s">
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="26">
-      <c r="A52" s="55" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58" t="s">
+      <c r="E52" s="21"/>
+      <c r="F52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="G52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="26">
-      <c r="A53" s="55" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="G53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="26">
-      <c r="A54" s="55" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58" t="s">
+      <c r="E54" s="21"/>
+      <c r="F54" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="76">
-      <c r="A55" s="55" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58" t="s">
+      <c r="E55" s="21"/>
+      <c r="F55" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G55" s="37" t="s">
+      <c r="G55" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="26">
-      <c r="A56" s="55" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58" t="s">
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="38.5">
-      <c r="A57" s="55" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58" t="s">
+      <c r="E57" s="21"/>
+      <c r="F57" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="26">
-      <c r="A58" s="55" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58" t="s">
+      <c r="E58" s="21"/>
+      <c r="F58" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="38.5">
-      <c r="A59" s="55" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58" t="s">
+      <c r="E59" s="21"/>
+      <c r="F59" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="38">
+      <c r="H59" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="59" t="s">
+      <c r="E60" s="31"/>
+      <c r="F60" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="46" t="s">
+      <c r="G60" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="41"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="60" t="s">
+      <c r="A61" s="32"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H61" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="45" t="s">
+      <c r="E62" s="17"/>
+      <c r="F62" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="G62" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="38">
+      <c r="H62" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="41"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="46" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="38.5">
-      <c r="A64" s="55" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58" t="s">
+      <c r="E64" s="21"/>
+      <c r="F64" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G64" s="37" t="s">
+      <c r="G64" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H64" s="38">
+      <c r="H64" s="16">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="38">
+      <c r="H65" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58" t="s">
+      <c r="E66" s="21"/>
+      <c r="F66" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="38">
+      <c r="H66" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="26">
-      <c r="A67" s="55" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="D67" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58" t="s">
+      <c r="E67" s="21"/>
+      <c r="F67" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="38">
+      <c r="H67" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="26">
-      <c r="A68" s="55" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58" t="s">
+      <c r="E68" s="21"/>
+      <c r="F68" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="38">
+      <c r="H68" s="16">
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="38.5">
-      <c r="A69" s="55" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58" t="s">
+      <c r="E69" s="21"/>
+      <c r="F69" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H69" s="38">
+      <c r="H69" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="38.5">
-      <c r="A70" s="55" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58" t="s">
+      <c r="E70" s="21"/>
+      <c r="F70" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G70" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H70" s="38">
+      <c r="H70" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="38.5">
-      <c r="A71" s="55" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58" t="s">
+      <c r="E71" s="21"/>
+      <c r="F71" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G71" s="37" t="s">
+      <c r="G71" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H71" s="38">
+      <c r="H71" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="63.5">
-      <c r="A72" s="55" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58" t="s">
+      <c r="E72" s="21"/>
+      <c r="F72" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G72" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H72" s="38">
+      <c r="H72" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="51">
-      <c r="A73" s="55" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58" t="s">
+      <c r="E73" s="21"/>
+      <c r="F73" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="38">
+      <c r="H73" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="38.5">
-      <c r="A74" s="55" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58" t="s">
+      <c r="E74" s="21"/>
+      <c r="F74" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G74" s="37" t="s">
+      <c r="G74" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74" s="16">
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="51">
-      <c r="A75" s="55" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58" t="s">
+      <c r="E75" s="21"/>
+      <c r="F75" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H75" s="38">
+      <c r="H75" s="16">
         <v>504</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="51">
-      <c r="A76" s="55" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58" t="s">
+      <c r="E76" s="21"/>
+      <c r="F76" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="38">
+      <c r="H76" s="16">
         <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E77" s="58" t="s">
+      <c r="E77" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F77" s="58" t="s">
+      <c r="F77" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="26">
-      <c r="A78" s="55" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="E78" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F78" s="58" t="s">
+      <c r="F78" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H78" s="38">
+      <c r="H78" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="26">
-      <c r="A79" s="55" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="58" t="s">
+      <c r="D79" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E79" s="58" t="s">
+      <c r="E79" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F79" s="58" t="s">
+      <c r="F79" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G79" s="37" t="s">
+      <c r="G79" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="38">
+      <c r="H79" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="26">
-      <c r="A80" s="55" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C80" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58" t="s">
+      <c r="D80" s="21"/>
+      <c r="E80" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="58" t="s">
+      <c r="F80" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G80" s="37" t="s">
+      <c r="G80" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H80" s="38">
+      <c r="H80" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="76">
-      <c r="A81" s="55" t="s">
+    <row r="81" spans="1:8">
+      <c r="A81" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D81" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="58" t="s">
+      <c r="E81" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F81" s="58" t="s">
+      <c r="F81" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H81" s="38">
+      <c r="H81" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="51">
-      <c r="A82" s="55" t="s">
+    <row r="82" spans="1:8">
+      <c r="A82" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="58" t="s">
+      <c r="E82" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F82" s="58" t="s">
+      <c r="F82" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G82" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="16">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="26">
-      <c r="A83" s="55" t="s">
+    <row r="83" spans="1:8">
+      <c r="A83" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D83" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="58" t="s">
+      <c r="E83" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="58" t="s">
+      <c r="F83" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G83" s="37" t="s">
+      <c r="G83" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H83" s="38">
+      <c r="H83" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="26">
-      <c r="A84" s="55" t="s">
+    <row r="84" spans="1:8">
+      <c r="A84" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D84" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E84" s="58" t="s">
+      <c r="E84" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F84" s="58" t="s">
+      <c r="F84" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="26">
-      <c r="A85" s="55" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="56" t="s">
+      <c r="C85" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E85" s="58" t="s">
+      <c r="E85" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F85" s="58" t="s">
+      <c r="F85" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G85" s="37" t="s">
+      <c r="G85" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H85" s="38">
+      <c r="H85" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="38.5">
-      <c r="A86" s="55" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="58" t="s">
+      <c r="D86" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="58" t="s">
+      <c r="E86" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F86" s="58" t="s">
+      <c r="F86" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G86" s="37" t="s">
+      <c r="G86" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H86" s="38">
+      <c r="H86" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="38.5">
-      <c r="A87" s="55" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D87" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="58" t="s">
+      <c r="E87" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="58" t="s">
+      <c r="F87" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H87" s="38">
+      <c r="H87" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="113.5">
-      <c r="A88" s="55" t="s">
+    <row r="88" spans="1:8" ht="26">
+      <c r="A88" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="58" t="s">
+      <c r="D88" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="58" t="s">
+      <c r="E88" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="58" t="s">
+      <c r="F88" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H88" s="38">
+      <c r="H88" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="113.5">
-      <c r="A89" s="55" t="s">
+    <row r="89" spans="1:8" ht="26">
+      <c r="A89" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D89" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E89" s="58" t="s">
+      <c r="E89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F89" s="58" t="s">
+      <c r="F89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G89" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H89" s="38">
+      <c r="H89" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="113.5">
-      <c r="A90" s="55" t="s">
+    <row r="90" spans="1:8" ht="26">
+      <c r="A90" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D90" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58" t="s">
+      <c r="E90" s="21"/>
+      <c r="F90" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H90" s="38">
+      <c r="H90" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="38.5">
-      <c r="A91" s="55" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="56" t="s">
+      <c r="C91" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="58" t="s">
+      <c r="D91" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E91" s="58" t="s">
+      <c r="E91" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="58" t="s">
+      <c r="F91" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H91" s="38">
+      <c r="H91" s="16">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="26">
-      <c r="A92" s="55" t="s">
+    <row r="92" spans="1:8">
+      <c r="A92" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="56" t="s">
+      <c r="C92" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D92" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="58" t="s">
+      <c r="E92" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F92" s="58" t="s">
+      <c r="F92" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G92" s="37" t="s">
+      <c r="G92" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H92" s="38">
+      <c r="H92" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="63" t="s">
+      <c r="D93" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="63" t="s">
+      <c r="F93" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="G93" s="64" t="s">
+      <c r="G93" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H93" s="38">
+      <c r="H93" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="65"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="64" t="s">
+      <c r="A94" s="54"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H94" s="38">
+      <c r="H94" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D95" s="67" t="s">
+      <c r="D95" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="E95" s="67" t="s">
+      <c r="E95" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="67" t="s">
+      <c r="F95" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="G95" s="46" t="s">
+      <c r="G95" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H95" s="38">
+      <c r="H95" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="68"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="46" t="s">
+      <c r="A96" s="59"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="H96" s="38">
+      <c r="H96" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="61" t="s">
+      <c r="A97" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D97" s="63" t="s">
+      <c r="D97" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="E97" s="63" t="s">
+      <c r="E97" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F97" s="63" t="s">
+      <c r="F97" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="G97" s="64" t="s">
+      <c r="G97" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="38">
+      <c r="H97" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="64" t="s">
+      <c r="A98" s="54"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H98" s="38">
+      <c r="H98" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="25">
-      <c r="A99" s="69" t="s">
+    <row r="99" spans="1:8">
+      <c r="A99" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -3620,8 +3626,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="37.5">
-      <c r="A100" s="69" t="s">
+    <row r="100" spans="1:8">
+      <c r="A100" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -3646,8 +3652,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="37.5">
-      <c r="A101" s="69" t="s">
+    <row r="101" spans="1:8">
+      <c r="A101" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -3672,8 +3678,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="37.5">
-      <c r="A102" s="69" t="s">
+    <row r="102" spans="1:8">
+      <c r="A102" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -3698,8 +3704,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="75">
-      <c r="A103" s="69" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -3724,8 +3730,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="75">
-      <c r="A104" s="69" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -3750,8 +3756,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="75">
-      <c r="A105" s="69" t="s">
+    <row r="105" spans="1:8">
+      <c r="A105" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -3776,8 +3782,8 @@
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="75">
-      <c r="A106" s="69" t="s">
+    <row r="106" spans="1:8">
+      <c r="A106" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -3802,8 +3808,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="37.5">
-      <c r="A107" s="69" t="s">
+    <row r="107" spans="1:8">
+      <c r="A107" s="23" t="s">
         <v>179</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -3829,22 +3835,22 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="69" t="s">
+      <c r="A108" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="49" t="s">
         <v>39</v>
       </c>
       <c r="G108" s="9" t="s">
@@ -3855,23 +3861,23 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="70" t="s">
+      <c r="B109" s="48"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H109" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="25">
-      <c r="A110" s="71" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -3886,18 +3892,18 @@
       <c r="E110" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F110" s="16" t="s">
+      <c r="F110" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G110" s="16" t="s">
+      <c r="G110" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H110" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="87.5">
-      <c r="A111" s="71" t="s">
+    <row r="111" spans="1:8">
+      <c r="A111" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -3912,36 +3918,36 @@
       <c r="E111" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="F111" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G111" s="16" t="s">
+      <c r="G111" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H111" s="17">
+      <c r="H111" s="12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="25">
-      <c r="A112" s="71" t="s">
+    <row r="112" spans="1:8">
+      <c r="A112" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G112" s="21" t="s">
+      <c r="G112" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H112" s="6">
@@ -3949,98 +3955,98 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="71" t="s">
+      <c r="A113" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24" t="s">
+      <c r="B113" s="38"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="21" t="s">
+      <c r="F113" s="52"/>
+      <c r="G113" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H113" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="25">
-      <c r="A114" s="71" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E114" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F114" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G114" s="16" t="s">
+      <c r="G114" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H114" s="28">
+      <c r="H114" s="14">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="37.5">
-      <c r="A115" s="71" t="s">
+    <row r="115" spans="1:8">
+      <c r="A115" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="16" t="s">
+      <c r="B115" s="45"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H115" s="28">
+      <c r="H115" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="71" t="s">
+      <c r="A116" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="32"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="21" t="s">
+      <c r="B116" s="42"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H116" s="28">
+      <c r="H116" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="25">
-      <c r="A117" s="71" t="s">
+    <row r="117" spans="1:8">
+      <c r="A117" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="C117" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E117" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F117" s="33" t="s">
+      <c r="F117" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -4051,41 +4057,41 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="71" t="s">
+      <c r="A118" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="21" t="s">
+      <c r="B118" s="38"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H118" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="25">
-      <c r="A119" s="71" t="s">
+    <row r="119" spans="1:8">
+      <c r="A119" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E119" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F119" s="27" t="s">
+      <c r="F119" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H119" s="6">
@@ -4093,15 +4099,15 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="71" t="s">
+      <c r="A120" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="21" t="s">
+      <c r="B120" s="42"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H120" s="6">
@@ -4109,22 +4115,22 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C121" s="33" t="s">
+      <c r="C121" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F121" s="33" t="s">
+      <c r="F121" s="39" t="s">
         <v>63</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -4135,38 +4141,38 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="71" t="s">
+      <c r="A122" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="21" t="s">
+      <c r="B122" s="38"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H122" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="25">
-      <c r="A123" s="71" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C123" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D123" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="E123" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F123" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -4177,41 +4183,41 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="71" t="s">
+      <c r="A124" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="21" t="s">
+      <c r="B124" s="38"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H124" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="25">
-      <c r="A125" s="71" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C125" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F125" s="33" t="s">
+      <c r="F125" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G125" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H125" s="6">
@@ -4219,15 +4225,15 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="72" t="s">
+      <c r="B126" s="38"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="26" t="s">
         <v>45</v>
       </c>
       <c r="H126" s="6">
@@ -4235,701 +4241,677 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="71" t="s">
+      <c r="A127" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="58" t="s">
+      <c r="C127" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D127" s="58" t="s">
+      <c r="D127" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58" t="s">
+      <c r="E127" s="21"/>
+      <c r="F127" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G127" s="58" t="s">
+      <c r="G127" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H127" s="38">
+      <c r="H127" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="26">
-      <c r="A128" s="71" t="s">
+    <row r="128" spans="1:8">
+      <c r="A128" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B128" s="56" t="s">
+      <c r="B128" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="58" t="s">
+      <c r="C128" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E128" s="58"/>
-      <c r="F128" s="58" t="s">
+      <c r="E128" s="21"/>
+      <c r="F128" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="58" t="s">
+      <c r="G128" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H128" s="38">
+      <c r="H128" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="26">
-      <c r="A129" s="71" t="s">
+    <row r="129" spans="1:8">
+      <c r="A129" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B129" s="56" t="s">
+      <c r="B129" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="58" t="s">
+      <c r="C129" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58" t="s">
+      <c r="E129" s="21"/>
+      <c r="F129" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G129" s="58" t="s">
+      <c r="G129" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H129" s="38">
+      <c r="H129" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="26">
-      <c r="A130" s="71" t="s">
+    <row r="130" spans="1:8">
+      <c r="A130" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="56" t="s">
+      <c r="B130" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C130" s="58" t="s">
+      <c r="C130" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D130" s="58" t="s">
+      <c r="D130" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E130" s="58"/>
-      <c r="F130" s="58" t="s">
+      <c r="E130" s="21"/>
+      <c r="F130" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G130" s="37" t="s">
+      <c r="G130" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H130" s="38">
+      <c r="H130" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="76">
-      <c r="A131" s="71" t="s">
+    <row r="131" spans="1:8">
+      <c r="A131" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="58" t="s">
+      <c r="C131" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D131" s="58" t="s">
+      <c r="D131" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E131" s="58"/>
-      <c r="F131" s="58" t="s">
+      <c r="E131" s="21"/>
+      <c r="F131" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G131" s="37" t="s">
+      <c r="G131" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H131" s="38">
+      <c r="H131" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="26">
-      <c r="A132" s="71" t="s">
+    <row r="132" spans="1:8">
+      <c r="A132" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B132" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C132" s="58" t="s">
+      <c r="C132" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D132" s="58" t="s">
+      <c r="D132" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="58"/>
-      <c r="F132" s="58" t="s">
+      <c r="E132" s="21"/>
+      <c r="F132" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G132" s="37" t="s">
+      <c r="G132" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H132" s="38">
+      <c r="H132" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="38.5">
-      <c r="A133" s="71" t="s">
+    <row r="133" spans="1:8">
+      <c r="A133" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B133" s="56" t="s">
+      <c r="B133" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="58" t="s">
+      <c r="C133" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D133" s="58" t="s">
+      <c r="D133" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58" t="s">
+      <c r="E133" s="21"/>
+      <c r="F133" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G133" s="37" t="s">
+      <c r="G133" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H133" s="38">
+      <c r="H133" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="26">
-      <c r="A134" s="71" t="s">
+    <row r="134" spans="1:8">
+      <c r="A134" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C134" s="58" t="s">
+      <c r="C134" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D134" s="58" t="s">
+      <c r="D134" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E134" s="58"/>
-      <c r="F134" s="58" t="s">
+      <c r="E134" s="21"/>
+      <c r="F134" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G134" s="37" t="s">
+      <c r="G134" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H134" s="38">
+      <c r="H134" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="38.5">
-      <c r="A135" s="71" t="s">
+    <row r="135" spans="1:8">
+      <c r="A135" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="58" t="s">
+      <c r="C135" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D135" s="58" t="s">
+      <c r="D135" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58" t="s">
+      <c r="E135" s="21"/>
+      <c r="F135" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G135" s="37" t="s">
+      <c r="G135" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H135" s="38">
+      <c r="H135" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="71" t="s">
+      <c r="A136" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B136" s="59" t="s">
+      <c r="B136" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D136" s="36" t="s">
+      <c r="D136" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E136" s="36"/>
-      <c r="F136" s="59" t="s">
+      <c r="E136" s="31"/>
+      <c r="F136" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G136" s="46" t="s">
+      <c r="G136" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H136" s="38">
+      <c r="H136" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="71" t="s">
+      <c r="A137" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B137" s="60"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="60" t="s">
+      <c r="B137" s="30"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G137" s="46" t="s">
+      <c r="G137" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H137" s="38">
+      <c r="H137" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C138" s="45" t="s">
+      <c r="C138" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D138" s="45" t="s">
+      <c r="D138" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E138" s="46"/>
-      <c r="F138" s="45" t="s">
+      <c r="E138" s="17"/>
+      <c r="F138" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G138" s="46" t="s">
+      <c r="G138" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H138" s="38">
+      <c r="H138" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="71" t="s">
+      <c r="A139" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="46"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="46" t="s">
+      <c r="B139" s="34"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H139" s="38">
+      <c r="H139" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="38.5">
-      <c r="A140" s="71" t="s">
+    <row r="140" spans="1:8">
+      <c r="A140" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B140" s="56" t="s">
+      <c r="B140" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C140" s="58" t="s">
+      <c r="C140" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D140" s="58" t="s">
+      <c r="D140" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E140" s="58"/>
-      <c r="F140" s="58" t="s">
+      <c r="E140" s="21"/>
+      <c r="F140" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G140" s="37" t="s">
+      <c r="G140" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H140" s="38">
+      <c r="H140" s="16">
         <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="71" t="s">
+      <c r="A141" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C141" s="58" t="s">
+      <c r="C141" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D141" s="58" t="s">
+      <c r="D141" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58" t="s">
+      <c r="E141" s="21"/>
+      <c r="F141" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G141" s="37" t="s">
+      <c r="G141" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H141" s="38">
+      <c r="H141" s="16">
         <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="71" t="s">
+      <c r="A142" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="58" t="s">
+      <c r="C142" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D142" s="58" t="s">
+      <c r="D142" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E142" s="58"/>
-      <c r="F142" s="58" t="s">
+      <c r="E142" s="21"/>
+      <c r="F142" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G142" s="37" t="s">
+      <c r="G142" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="38">
+      <c r="H142" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="26">
-      <c r="A143" s="71" t="s">
+    <row r="143" spans="1:8">
+      <c r="A143" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B143" s="56" t="s">
+      <c r="B143" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D143" s="58" t="s">
+      <c r="D143" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E143" s="58"/>
-      <c r="F143" s="58" t="s">
+      <c r="E143" s="21"/>
+      <c r="F143" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G143" s="37" t="s">
+      <c r="G143" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H143" s="38">
+      <c r="H143" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="26">
-      <c r="A144" s="71" t="s">
+    <row r="144" spans="1:8">
+      <c r="A144" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="56" t="s">
+      <c r="B144" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="58" t="s">
+      <c r="C144" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D144" s="58" t="s">
+      <c r="D144" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E144" s="58"/>
-      <c r="F144" s="58" t="s">
+      <c r="E144" s="21"/>
+      <c r="F144" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G144" s="37" t="s">
+      <c r="G144" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H144" s="38">
+      <c r="H144" s="16">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="38.5">
-      <c r="A145" s="71" t="s">
+    <row r="145" spans="1:8">
+      <c r="A145" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B145" s="56" t="s">
+      <c r="B145" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="58" t="s">
+      <c r="C145" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="58" t="s">
+      <c r="D145" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58" t="s">
+      <c r="E145" s="21"/>
+      <c r="F145" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G145" s="37" t="s">
+      <c r="G145" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H145" s="38">
+      <c r="H145" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="38.5">
-      <c r="A146" s="71" t="s">
+    <row r="146" spans="1:8">
+      <c r="A146" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B146" s="56" t="s">
+      <c r="B146" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="58" t="s">
+      <c r="C146" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D146" s="58" t="s">
+      <c r="D146" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58" t="s">
+      <c r="E146" s="21"/>
+      <c r="F146" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G146" s="37" t="s">
+      <c r="G146" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H146" s="38">
+      <c r="H146" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="38.5">
-      <c r="A147" s="71" t="s">
+    <row r="147" spans="1:8">
+      <c r="A147" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B147" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D147" s="58" t="s">
+      <c r="D147" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58" t="s">
+      <c r="E147" s="21"/>
+      <c r="F147" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G147" s="37" t="s">
+      <c r="G147" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H147" s="38">
+      <c r="H147" s="16">
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="63.5">
-      <c r="A148" s="71" t="s">
+    <row r="148" spans="1:8">
+      <c r="A148" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B148" s="56" t="s">
+      <c r="B148" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="58" t="s">
+      <c r="C148" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="58" t="s">
+      <c r="D148" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E148" s="58"/>
-      <c r="F148" s="58" t="s">
+      <c r="E148" s="21"/>
+      <c r="F148" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G148" s="37" t="s">
+      <c r="G148" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H148" s="38">
+      <c r="H148" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="51">
-      <c r="A149" s="71" t="s">
+    <row r="149" spans="1:8">
+      <c r="A149" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B149" s="56" t="s">
+      <c r="B149" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C149" s="58" t="s">
+      <c r="C149" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D149" s="58" t="s">
+      <c r="D149" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E149" s="58"/>
-      <c r="F149" s="58" t="s">
+      <c r="E149" s="21"/>
+      <c r="F149" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G149" s="37" t="s">
+      <c r="G149" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H149" s="38">
+      <c r="H149" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="38.5">
-      <c r="A150" s="71" t="s">
+    <row r="150" spans="1:8">
+      <c r="A150" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="58" t="s">
+      <c r="C150" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D150" s="58" t="s">
+      <c r="D150" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E150" s="58"/>
-      <c r="F150" s="58" t="s">
+      <c r="E150" s="21"/>
+      <c r="F150" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G150" s="37" t="s">
+      <c r="G150" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H150" s="38">
+      <c r="H150" s="16">
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="51">
-      <c r="A151" s="71" t="s">
+    <row r="151" spans="1:8">
+      <c r="A151" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C151" s="58" t="s">
+      <c r="C151" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="58" t="s">
+      <c r="D151" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58" t="s">
+      <c r="E151" s="21"/>
+      <c r="F151" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G151" s="37" t="s">
+      <c r="G151" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H151" s="38">
+      <c r="H151" s="16">
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="51">
-      <c r="A152" s="71" t="s">
+    <row r="152" spans="1:8">
+      <c r="A152" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B152" s="73" t="s">
+      <c r="B152" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D152" s="38" t="s">
+      <c r="D152" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38" t="s">
+      <c r="E152" s="16"/>
+      <c r="F152" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G152" s="74" t="s">
+      <c r="G152" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H152" s="38">
+      <c r="H152" s="16">
         <v>504</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
@@ -4947,66 +4929,90 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="F138:F139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/master_sheet.xlsx
+++ b/public/master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects GWC\aequs_frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41004BE-44F7-415C-90F2-7016705396D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D39DF2A-F93C-4B33-81EE-2251B7355E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0F2054A-5548-47A0-AA98-7282F671C746}"/>
+    <workbookView xWindow="5480" yWindow="3400" windowWidth="14400" windowHeight="7360" xr2:uid="{F0F2054A-5548-47A0-AA98-7282F671C746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="186">
   <si>
     <t>Processes Stage</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Heat soak + Instron</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>6pcs/build</t>
   </si>
   <si>
@@ -500,13 +497,7 @@
     <t>2.4   Outdoor Profile - CP: T0, 80hr, 160hr, 240hr, 320hr, 400hr</t>
   </si>
   <si>
-    <t>504h 65/90 ; CP:   T0, 144hrs, 288hr, 432hr, 504hr</t>
-  </si>
-  <si>
     <t>5pcs/build</t>
-  </si>
-  <si>
-    <t>504h 85/85 ; CP:   T0, 144hrs, 288hr, 432hr, 504hr</t>
   </si>
   <si>
     <t>Hulk MP</t>
@@ -595,9 +586,6 @@
     <t>Assembly Flash/Light Line/Machine Qualification</t>
   </si>
   <si>
-    <t>3pcs/build/foot vendor  3pcs/build/foot vendor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salt spray </t>
   </si>
   <si>
@@ -605,19 +593,37 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3pcs/build/foot vendor  </t>
+  </si>
+  <si>
+    <t>Heat   Soak 504h 65/90</t>
+  </si>
+  <si>
+    <t>Heat   Soak 504h 85/85</t>
+  </si>
+  <si>
+    <t>CP:   T0, 144hrs, 288hr, 432hr, 504hr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -628,7 +634,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -636,12 +642,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,7 +741,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D366BC6-A65B-47E8-A087-1256D99A3D5E}" name="Table2_1" displayName="Table2_1" ref="A1:H152" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H152" xr:uid="{7D366BC6-A65B-47E8-A087-1256D99A3D5E}"/>
+  <autoFilter ref="A1:H152" xr:uid="{7D366BC6-A65B-47E8-A087-1256D99A3D5E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Hulk NPI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3C8BC17C-8536-4B7E-8239-FF2047243793}" uniqueName="1" name="Processes Stage" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{AC389B80-3769-41F2-AD92-86C40F643153}" uniqueName="2" name="Test Name" queryTableFieldId="2" dataDxfId="4"/>
@@ -1031,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A3E03E-B44D-4C4E-BDCB-5A59DBAE47CB}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1070,10 +1120,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1305,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1357,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1383,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1385,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1461,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1437,7 +1487,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1463,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1489,7 +1539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +1565,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1541,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1567,7 +1617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1593,24 +1643,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -1619,7 +1669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1630,13 +1680,13 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -1645,15 +1695,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1662,24 +1712,24 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
       </c>
       <c r="H24">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1688,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -1697,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1705,7 +1755,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1723,7 +1773,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1731,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1749,7 +1799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1757,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1766,7 +1816,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
@@ -1775,7 +1825,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1833,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1792,7 +1842,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -1801,18 +1851,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1827,18 +1877,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -1853,18 +1903,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -1873,30 +1923,30 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -1905,35 +1955,35 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
         <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
       </c>
       <c r="E34" t="s">
         <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -1942,13 +1992,13 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
         <v>74</v>
       </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -1957,9 +2007,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -1968,33 +2018,33 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
         <v>74</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
         <v>77</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>52</v>
@@ -2006,44 +2056,44 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
         <v>77</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>52</v>
@@ -2058,18 +2108,18 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
         <v>52</v>
@@ -2078,24 +2128,24 @@
         <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
         <v>52</v>
@@ -2110,18 +2160,18 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
         <v>52</v>
@@ -2130,27 +2180,27 @@
         <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
         <v>82</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2162,21 +2212,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -2185,24 +2235,24 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
         <v>86</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
       </c>
       <c r="F45" t="s">
         <v>32</v>
@@ -2214,9 +2264,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -2225,33 +2275,33 @@
         <v>300</v>
       </c>
       <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
         <v>89</v>
       </c>
-      <c r="E46" t="s">
-        <v>90</v>
-      </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>93</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
@@ -2266,50 +2316,50 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>95</v>
       </c>
-      <c r="D48" t="s">
-        <v>96</v>
-      </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -2318,18 +2368,18 @@
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -2346,25 +2396,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>101</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -2372,25 +2422,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
         <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
       </c>
       <c r="E52" t="s">
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2398,25 +2448,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2424,25 +2474,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
         <v>105</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H54">
         <v>24</v>
@@ -2450,25 +2500,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H55">
         <v>48</v>
@@ -2476,13 +2526,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
         <v>112</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -2491,10 +2541,10 @@
         <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H56">
         <v>24</v>
@@ -2502,25 +2552,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>115</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57">
         <v>72</v>
@@ -2528,25 +2578,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
         <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H58">
         <v>72</v>
@@ -2554,25 +2604,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
         <v>115</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59">
         <v>72</v>
@@ -2580,22 +2630,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
         <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
         <v>28</v>
@@ -2606,25 +2656,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
         <v>115</v>
-      </c>
-      <c r="D61" t="s">
-        <v>116</v>
       </c>
       <c r="E61" t="s">
         <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H61">
         <v>72</v>
@@ -2632,22 +2682,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" t="s">
         <v>115</v>
-      </c>
-      <c r="D62" t="s">
-        <v>116</v>
       </c>
       <c r="E62" t="s">
         <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" t="s">
         <v>28</v>
@@ -2658,25 +2708,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
         <v>115</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
       </c>
       <c r="E63" t="s">
         <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H63">
         <v>72</v>
@@ -2684,25 +2734,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
         <v>124</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>125</v>
-      </c>
-      <c r="D64" t="s">
-        <v>126</v>
       </c>
       <c r="E64" t="s">
         <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64">
         <v>96</v>
@@ -2710,13 +2760,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -2736,13 +2786,13 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2762,22 +2812,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
         <v>130</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>131</v>
-      </c>
-      <c r="D67" t="s">
-        <v>132</v>
       </c>
       <c r="E67" t="s">
         <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -2788,25 +2838,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
         <v>134</v>
       </c>
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
         <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H68">
         <v>216</v>
@@ -2814,25 +2864,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
         <v>137</v>
       </c>
-      <c r="C69" t="s">
-        <v>138</v>
-      </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
         <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H69">
         <v>432</v>
@@ -2840,25 +2890,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
         <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70">
         <v>432</v>
@@ -2866,25 +2916,25 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
         <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H71">
         <v>432</v>
@@ -2892,16 +2942,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
         <v>144</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>146</v>
       </c>
       <c r="E72" t="s">
         <v>52</v>
@@ -2918,16 +2968,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
         <v>147</v>
       </c>
-      <c r="C73" t="s">
-        <v>148</v>
-      </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
         <v>52</v>
@@ -2944,13 +2994,13 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
         <v>149</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
@@ -2959,10 +3009,10 @@
         <v>52</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74">
         <v>400</v>
@@ -2970,16 +3020,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
+        <v>98</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
         <v>52</v>
@@ -2996,13 +3046,13 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" t="s">
-        <v>153</v>
+        <v>98</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -3020,177 +3070,174 @@
         <v>504</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" t="s">
         <v>154</v>
       </c>
-      <c r="B80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
-      </c>
-      <c r="D80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" t="s">
-        <v>157</v>
-      </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H80">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H81">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H82">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
         <v>28</v>
@@ -3202,24 +3249,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
@@ -3228,99 +3275,99 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H85">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
         <v>165</v>
       </c>
-      <c r="E86" t="s">
-        <v>168</v>
-      </c>
       <c r="F86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H86">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>140</v>
       </c>
-      <c r="C87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>141</v>
-      </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H87">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
         <v>28</v>
@@ -3332,21 +3379,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
         <v>28</v>
@@ -3358,21 +3405,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -3384,47 +3431,47 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H91">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -3436,24 +3483,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s">
         <v>28</v>
@@ -3462,50 +3509,50 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" t="s">
+        <v>173</v>
+      </c>
+      <c r="G94" t="s">
         <v>174</v>
-      </c>
-      <c r="C94" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" t="s">
-        <v>152</v>
-      </c>
-      <c r="E94" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" t="s">
-        <v>176</v>
-      </c>
-      <c r="G94" t="s">
-        <v>177</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" t="s">
         <v>28</v>
@@ -3514,50 +3561,50 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F97" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G97" t="s">
         <v>28</v>
@@ -3566,35 +3613,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G98" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3618,9 +3665,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
@@ -3644,9 +3691,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -3670,9 +3717,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -3696,9 +3743,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
@@ -3722,9 +3769,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -3748,9 +3795,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
@@ -3774,9 +3821,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
@@ -3800,9 +3847,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
         <v>33</v>
@@ -3826,9 +3873,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -3852,9 +3899,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -3878,9 +3925,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>42</v>
@@ -3904,9 +3951,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
@@ -3930,9 +3977,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -3956,9 +4003,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
@@ -3982,9 +4029,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
         <v>53</v>
@@ -4008,9 +4055,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
         <v>53</v>
@@ -4034,9 +4081,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
         <v>53</v>
@@ -4060,9 +4107,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
@@ -4086,9 +4133,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
@@ -4112,9 +4159,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
@@ -4123,24 +4170,24 @@
         <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E119" t="s">
         <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G119" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H119">
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
@@ -4149,13 +4196,13 @@
         <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E120" t="s">
         <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G120" t="s">
         <v>44</v>
@@ -4164,15 +4211,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" t="s">
         <v>61</v>
-      </c>
-      <c r="C121" t="s">
-        <v>62</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -4181,24 +4228,24 @@
         <v>47</v>
       </c>
       <c r="F121" t="s">
+        <v>62</v>
+      </c>
+      <c r="G121" t="s">
         <v>63</v>
-      </c>
-      <c r="G121" t="s">
-        <v>64</v>
       </c>
       <c r="H121">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" t="s">
         <v>61</v>
-      </c>
-      <c r="C122" t="s">
-        <v>62</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
@@ -4207,7 +4254,7 @@
         <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G122" t="s">
         <v>44</v>
@@ -4216,15 +4263,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
         <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D123" t="s">
         <v>46</v>
@@ -4242,15 +4289,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
         <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
         <v>46</v>
@@ -4268,15 +4315,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
         <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -4285,7 +4332,7 @@
         <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G125" t="s">
         <v>25</v>
@@ -4294,15 +4341,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -4311,7 +4358,7 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G126" t="s">
         <v>44</v>
@@ -4320,145 +4367,145 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127" t="s">
         <v>100</v>
-      </c>
-      <c r="C127" t="s">
-        <v>95</v>
-      </c>
-      <c r="D127" t="s">
-        <v>101</v>
       </c>
       <c r="E127" t="s">
         <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" t="s">
         <v>102</v>
-      </c>
-      <c r="C128" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" t="s">
-        <v>103</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E129" t="s">
         <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" t="s">
         <v>105</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>106</v>
-      </c>
-      <c r="D130" t="s">
-        <v>107</v>
       </c>
       <c r="E130" t="s">
         <v>47</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H130">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" t="s">
         <v>108</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>109</v>
-      </c>
-      <c r="D131" t="s">
-        <v>110</v>
       </c>
       <c r="E131" t="s">
         <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H131">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" t="s">
         <v>112</v>
-      </c>
-      <c r="C132" t="s">
-        <v>113</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
@@ -4467,111 +4514,111 @@
         <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H132">
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" t="s">
         <v>114</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>115</v>
-      </c>
-      <c r="D133" t="s">
-        <v>116</v>
       </c>
       <c r="E133" t="s">
         <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H133">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C134" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" t="s">
         <v>115</v>
-      </c>
-      <c r="D134" t="s">
-        <v>116</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H134">
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C135" t="s">
+        <v>114</v>
+      </c>
+      <c r="D135" t="s">
         <v>115</v>
-      </c>
-      <c r="D135" t="s">
-        <v>116</v>
       </c>
       <c r="E135" t="s">
         <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H135">
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" t="s">
+        <v>114</v>
+      </c>
+      <c r="D136" t="s">
         <v>115</v>
-      </c>
-      <c r="D136" t="s">
-        <v>116</v>
       </c>
       <c r="E136" t="s">
         <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G136" t="s">
         <v>28</v>
@@ -4580,50 +4627,50 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C137" t="s">
+        <v>114</v>
+      </c>
+      <c r="D137" t="s">
         <v>115</v>
-      </c>
-      <c r="D137" t="s">
-        <v>116</v>
       </c>
       <c r="E137" t="s">
         <v>47</v>
       </c>
       <c r="F137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G137" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H137">
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D138" t="s">
         <v>115</v>
-      </c>
-      <c r="D138" t="s">
-        <v>116</v>
       </c>
       <c r="E138" t="s">
         <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G138" t="s">
         <v>28</v>
@@ -4632,67 +4679,67 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" t="s">
         <v>115</v>
-      </c>
-      <c r="D139" t="s">
-        <v>116</v>
       </c>
       <c r="E139" t="s">
         <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H139">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" t="s">
         <v>124</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>125</v>
-      </c>
-      <c r="D140" t="s">
-        <v>126</v>
       </c>
       <c r="E140" t="s">
         <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H140">
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B141" t="s">
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -4710,15 +4757,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -4736,24 +4783,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" t="s">
         <v>130</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>131</v>
-      </c>
-      <c r="D143" t="s">
-        <v>132</v>
       </c>
       <c r="E143" t="s">
         <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -4762,122 +4809,122 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" t="s">
         <v>134</v>
       </c>
-      <c r="C144" t="s">
-        <v>135</v>
-      </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E144" t="s">
         <v>47</v>
       </c>
       <c r="F144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H144">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B145" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" t="s">
         <v>137</v>
       </c>
-      <c r="C145" t="s">
-        <v>138</v>
-      </c>
       <c r="D145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E145" t="s">
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G145" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H145">
         <v>432</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" t="s">
         <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H146">
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" t="s">
         <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H147">
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B148" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" t="s">
         <v>144</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>145</v>
-      </c>
-      <c r="D148" t="s">
-        <v>146</v>
       </c>
       <c r="E148" t="s">
         <v>47</v>
@@ -4892,18 +4939,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149" t="s">
         <v>147</v>
       </c>
-      <c r="C149" t="s">
-        <v>148</v>
-      </c>
       <c r="D149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E149" t="s">
         <v>47</v>
@@ -4918,15 +4965,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
         <v>149</v>
-      </c>
-      <c r="C150" t="s">
-        <v>150</v>
       </c>
       <c r="D150" t="s">
         <v>17</v>
@@ -4935,27 +4982,27 @@
         <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H150">
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" t="s">
-        <v>184</v>
-      </c>
-      <c r="B151" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" t="s">
-        <v>151</v>
+        <v>180</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E151" t="s">
         <v>47</v>
@@ -4970,15 +5017,15 @@
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B152" t="s">
-        <v>28</v>
-      </c>
-      <c r="C152" t="s">
-        <v>153</v>
+      <c r="C152" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
